--- a/inst/data-misc/author_affiliations.xlsx
+++ b/inst/data-misc/author_affiliations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\cbspeeches\inst\data-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2204AAB7-78EC-4863-9149-D858C5E12727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A46EA8-5AFE-48B6-A3F8-139C7F4CAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
+    <workbookView xWindow="7305" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="337">
   <si>
     <t>author</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Fabio Panetta</t>
   </si>
   <si>
-    <t>Fehmi  Mehmeti</t>
-  </si>
-  <si>
     <t>Fehmi Mehmeti</t>
   </si>
   <si>
@@ -887,6 +884,153 @@
   </si>
   <si>
     <t>Bank of Korea</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Ana Mitreska</t>
+  </si>
+  <si>
+    <t>Anita Angelovska-Bezhoska</t>
+  </si>
+  <si>
+    <t>Ariff Ali</t>
+  </si>
+  <si>
+    <t>Asgeir Jonsson</t>
+  </si>
+  <si>
+    <t>Barry Whiteside</t>
+  </si>
+  <si>
+    <t>Burhanuddin Abdullah</t>
+  </si>
+  <si>
+    <t>Bwalya K E Ng'andu</t>
+  </si>
+  <si>
+    <t>Caleb M Fundanga</t>
+  </si>
+  <si>
+    <t>Carlos Gustavo Cano</t>
+  </si>
+  <si>
+    <t>Caroline Abel</t>
+  </si>
+  <si>
+    <t>Chris Stals</t>
+  </si>
+  <si>
+    <t>Daniele Franco</t>
+  </si>
+  <si>
+    <t>Denny H Kalyalya</t>
+  </si>
+  <si>
+    <t>Edgar Meister</t>
+  </si>
+  <si>
+    <t>Elsie Addo Awadzi</t>
+  </si>
+  <si>
+    <t>Enrique V Iglesias</t>
+  </si>
+  <si>
+    <t>Ernest Addison</t>
+  </si>
+  <si>
+    <t>Gertrude Tumpel-Gugerell</t>
+  </si>
+  <si>
+    <t>John Hurley</t>
+  </si>
+  <si>
+    <t>Lucas Papademos</t>
+  </si>
+  <si>
+    <t>Mar Gudmundsson</t>
+  </si>
+  <si>
+    <t>Maria Almasara Cyd N Tuano-Amador</t>
+  </si>
+  <si>
+    <t>Matti Vanhala</t>
+  </si>
+  <si>
+    <t>Miguel Urrutia Montoya</t>
+  </si>
+  <si>
+    <t>Murat Cetinkaya</t>
+  </si>
+  <si>
+    <t>Ong Chong Tee</t>
+  </si>
+  <si>
+    <t>Paolo Angelini</t>
+  </si>
+  <si>
+    <t>Patrick Honohan</t>
+  </si>
+  <si>
+    <t>Rameswurlall Basant Roi</t>
+  </si>
+  <si>
+    <t>Rodrigo de Rato</t>
+  </si>
+  <si>
+    <t>Rosanna Costa</t>
+  </si>
+  <si>
+    <t>Thomas Jordan? Martin Schlegel? Andrea M Maechler</t>
+  </si>
+  <si>
+    <t>Thomas Jordan? Martin Schlegel? Thomas Moser</t>
+  </si>
+  <si>
+    <t>Tukiya Kankasa-Mabula</t>
+  </si>
+  <si>
+    <t>Valeria Sannucci</t>
+  </si>
+  <si>
+    <t>Wu Xiaoling</t>
+  </si>
+  <si>
+    <t>Bank of Zambia</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>Bank of Mauritius</t>
+  </si>
+  <si>
+    <t>Central Bank of the Republic of Turkiye</t>
+  </si>
+  <si>
+    <t>Central Bank of Columbia</t>
+  </si>
+  <si>
+    <t>Bank of Finland</t>
+  </si>
+  <si>
+    <t>Central Bank of the Philippines (Bangko Sentral ng Pilipinas)</t>
+  </si>
+  <si>
+    <t>Inter-American Development Bank</t>
+  </si>
+  <si>
+    <t>Central Bank of Seychelles</t>
+  </si>
+  <si>
+    <t>Reserve Bank of Fiji</t>
+  </si>
+  <si>
+    <t>National Bank of the Republic of North Macedonia</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank</t>
   </si>
 </sst>
 </file>
@@ -1731,13 +1875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351383C-BFCF-47BC-8B58-C4D6A469C510}">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1746,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,684 +1932,684 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
         <v>227</v>
@@ -2471,111 +2617,111 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
         <v>237</v>
@@ -2583,271 +2729,271 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="B139" t="s">
         <v>240</v>
@@ -2855,183 +3001,183 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="B162" t="s">
         <v>223</v>
@@ -3039,423 +3185,423 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B170" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B175" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="B176" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B177" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B179" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B180" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B182" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B185" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="B186" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B188" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>188</v>
+        <v>316</v>
       </c>
       <c r="B191" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B196" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B197" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B211" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="B212" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B213" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="B214" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B215" t="s">
         <v>228</v>
@@ -3463,7 +3609,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B216" t="s">
         <v>241</v>
@@ -3471,50 +3617,346 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B222" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B235" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B236" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B238" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B239" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B240" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B241" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B242" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B243" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B245" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B247" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B248" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B249" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B250" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B251" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B252" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B253" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B254" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B255" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B257" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B258" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B259" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data-misc/author_affiliations.xlsx
+++ b/inst/data-misc/author_affiliations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\cbspeeches\inst\data-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A46EA8-5AFE-48B6-A3F8-139C7F4CAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB35A2-482F-46E3-8416-7BA1B30B739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
+    <workbookView xWindow="3855" yWindow="3270" windowWidth="28800" windowHeight="15345" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -679,9 +679,6 @@
     <t>Yutaka Harada</t>
   </si>
   <si>
-    <t>affiliation</t>
-  </si>
-  <si>
     <t>B P Kanungo</t>
   </si>
   <si>
@@ -982,12 +979,6 @@
     <t>Rosanna Costa</t>
   </si>
   <si>
-    <t>Thomas Jordan? Martin Schlegel? Andrea M Maechler</t>
-  </si>
-  <si>
-    <t>Thomas Jordan? Martin Schlegel? Thomas Moser</t>
-  </si>
-  <si>
     <t>Tukiya Kankasa-Mabula</t>
   </si>
   <si>
@@ -1031,6 +1022,15 @@
   </si>
   <si>
     <t>Federal Reserve Bank</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>Thomas Jordan? Martin Schlegel? Andrea M Maechler</t>
+  </si>
+  <si>
+    <t>Thomas Jordan? Martin Schlegel? Thomas Moser</t>
   </si>
 </sst>
 </file>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351383C-BFCF-47BC-8B58-C4D6A469C510}">
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,15 +1932,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,15 +1964,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,15 +2020,15 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,15 +2044,15 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,15 +2068,15 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,31 +2092,31 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,15 +2172,15 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,23 +2188,23 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,23 +2212,23 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,15 +2276,15 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,15 +2340,15 @@
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,15 +2380,15 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,15 +2420,15 @@
         <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,15 +2436,15 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,23 +2460,23 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,15 +2548,15 @@
         <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>75</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,15 +2828,15 @@
         <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>98</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,15 +2988,15 @@
         <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>118</v>
       </c>
       <c r="B142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,15 +3036,15 @@
         <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,15 +3052,15 @@
         <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B147" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>124</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,15 +3140,15 @@
         <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>132</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>135</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>137</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>138</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,15 +3220,15 @@
         <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>141</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>142</v>
       </c>
       <c r="B170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>143</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>144</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>145</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,15 +3284,15 @@
         <v>147</v>
       </c>
       <c r="B175" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>148</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>149</v>
       </c>
       <c r="B178" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>150</v>
       </c>
       <c r="B179" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>151</v>
       </c>
       <c r="B180" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>153</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,15 +3364,15 @@
         <v>156</v>
       </c>
       <c r="B185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B186" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>157</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,31 +3388,31 @@
         <v>158</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" t="s">
         <v>221</v>
-      </c>
-      <c r="B189" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>164</v>
       </c>
       <c r="B197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>165</v>
       </c>
       <c r="B198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>166</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>167</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>168</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,15 +3516,15 @@
         <v>171</v>
       </c>
       <c r="B204" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>173</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,23 +3548,23 @@
         <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B209" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>175</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>176</v>
       </c>
       <c r="B212" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>177</v>
       </c>
       <c r="B213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="B214" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>179</v>
       </c>
       <c r="B215" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>180</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>187</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>188</v>
       </c>
       <c r="B224" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>189</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>190</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>191</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>192</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>193</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>195</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>196</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>197</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>198</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,23 +3764,23 @@
         <v>199</v>
       </c>
       <c r="B235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B237" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>201</v>
       </c>
       <c r="B239" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,15 +3804,15 @@
         <v>202</v>
       </c>
       <c r="B240" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B241" t="s">
         <v>322</v>
-      </c>
-      <c r="B241" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,15 +3820,15 @@
         <v>203</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>204</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>205</v>
       </c>
       <c r="B245" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>206</v>
       </c>
       <c r="B246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>207</v>
       </c>
       <c r="B247" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>208</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>209</v>
       </c>
       <c r="B249" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>210</v>
       </c>
       <c r="B250" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>211</v>
       </c>
       <c r="B251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>212</v>
       </c>
       <c r="B252" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,15 +3908,15 @@
         <v>213</v>
       </c>
       <c r="B253" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B254" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>214</v>
       </c>
       <c r="B255" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>215</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>216</v>
       </c>
       <c r="B257" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>217</v>
       </c>
       <c r="B258" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>218</v>
       </c>
       <c r="B259" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data-misc/author_affiliations.xlsx
+++ b/inst/data-misc/author_affiliations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\My Drive\Carleton\P4\boc_speeches\adam\round2\cbspeeches\inst\data-misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB35A2-482F-46E3-8416-7BA1B30B739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C31AB5-C782-4135-9815-9579567F1B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3270" windowWidth="28800" windowHeight="15345" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
+    <workbookView xWindow="6480" yWindow="4620" windowWidth="28800" windowHeight="15345" xr2:uid="{3E28BD97-3074-4F88-94E0-20EEFD02F631}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="336">
   <si>
     <t>author</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Central Bank of Kuwait</t>
   </si>
   <si>
-    <t>US Federal Reserve</t>
-  </si>
-  <si>
     <t>European Central Bank</t>
   </si>
   <si>
@@ -877,9 +874,6 @@
     <t>National Bank of Ukraine</t>
   </si>
   <si>
-    <t>People's Bank of China</t>
-  </si>
-  <si>
     <t>Bank of Korea</t>
   </si>
   <si>
@@ -1000,9 +994,6 @@
     <t>Central Bank of the Republic of Turkiye</t>
   </si>
   <si>
-    <t>Central Bank of Columbia</t>
-  </si>
-  <si>
     <t>Bank of Finland</t>
   </si>
   <si>
@@ -1031,6 +1022,12 @@
   </si>
   <si>
     <t>Thomas Jordan? Martin Schlegel? Thomas Moser</t>
+  </si>
+  <si>
+    <t>Central Bank of Colombia</t>
+  </si>
+  <si>
+    <t>The People's Bank of China</t>
   </si>
 </sst>
 </file>
@@ -1877,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351383C-BFCF-47BC-8B58-C4D6A469C510}">
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,10 +1934,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,10 +1966,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,10 +2022,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,10 +2046,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,10 +2070,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,10 +2110,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2153,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,12 +2169,12 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
         <v>231</v>
@@ -2193,18 +2190,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,23 +2209,23 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2241,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2249,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2257,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,15 +2273,15 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2297,7 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2313,7 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2321,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,15 +2337,15 @@
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,15 +2377,15 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2393,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2401,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2409,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,12 +2417,12 @@
         <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
         <v>226</v>
@@ -2436,12 +2433,12 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s">
         <v>229</v>
@@ -2465,15 +2462,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
         <v>229</v>
@@ -2492,7 +2489,7 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2497,7 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2513,7 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2521,7 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2537,7 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,10 +2550,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2577,7 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2601,7 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2657,7 @@
         <v>75</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2665,7 @@
         <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2673,7 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2681,7 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2689,7 @@
         <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2705,7 @@
         <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2737,7 @@
         <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2753,7 @@
         <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2817,7 @@
         <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,15 +2825,15 @@
         <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2841,7 @@
         <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2865,7 @@
         <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2873,7 @@
         <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2889,7 @@
         <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2905,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2913,7 @@
         <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2929,7 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2937,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2961,7 @@
         <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2969,7 @@
         <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2977,7 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,15 +2985,15 @@
         <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3001,7 @@
         <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3009,7 @@
         <v>117</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3025,7 @@
         <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,10 +3038,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,10 +3054,10 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B147" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3065,7 @@
         <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3073,7 @@
         <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3081,7 @@
         <v>124</v>
       </c>
       <c r="B150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3089,7 @@
         <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3097,7 @@
         <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3113,7 @@
         <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3121,7 @@
         <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,10 +3142,10 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3185,7 @@
         <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3193,7 @@
         <v>137</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3201,7 @@
         <v>138</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3209,7 @@
         <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,15 +3217,15 @@
         <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B168" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3233,7 @@
         <v>141</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3249,7 @@
         <v>143</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3265,7 @@
         <v>145</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3273,7 @@
         <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,15 +3281,15 @@
         <v>147</v>
       </c>
       <c r="B175" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3329,7 @@
         <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3337,7 @@
         <v>153</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,10 +3366,10 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B186" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3377,7 @@
         <v>157</v>
       </c>
       <c r="B187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3385,7 @@
         <v>158</v>
       </c>
       <c r="B188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,18 +3398,18 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3417,7 @@
         <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>160</v>
       </c>
       <c r="B193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3433,7 @@
         <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3441,7 @@
         <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3449,7 @@
         <v>163</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="B198" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3473,7 @@
         <v>166</v>
       </c>
       <c r="B199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3481,7 @@
         <v>167</v>
       </c>
       <c r="B200" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3489,7 @@
         <v>168</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3497,7 @@
         <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3505,7 @@
         <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,10 +3518,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B205" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3529,7 @@
         <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3537,7 @@
         <v>173</v>
       </c>
       <c r="B207" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,23 +3545,23 @@
         <v>174</v>
       </c>
       <c r="B208" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B209" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B210" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3569,7 @@
         <v>175</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3585,7 @@
         <v>177</v>
       </c>
       <c r="B213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3593,7 @@
         <v>178</v>
       </c>
       <c r="B214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>180</v>
       </c>
       <c r="B216" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3633,7 @@
         <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3649,7 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3657,7 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3673,7 @@
         <v>188</v>
       </c>
       <c r="B224" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3689,7 @@
         <v>190</v>
       </c>
       <c r="B226" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>191</v>
       </c>
       <c r="B227" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3713,7 @@
         <v>193</v>
       </c>
       <c r="B229" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3766,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B236" t="s">
         <v>225</v>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B237" t="s">
         <v>225</v>
@@ -3788,7 +3785,7 @@
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3793,7 @@
         <v>201</v>
       </c>
       <c r="B239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,10 +3806,10 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B241" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,10 +3822,10 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3833,7 @@
         <v>204</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3841,7 @@
         <v>205</v>
       </c>
       <c r="B245" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3873,7 @@
         <v>209</v>
       </c>
       <c r="B249" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3881,7 @@
         <v>210</v>
       </c>
       <c r="B250" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3897,7 @@
         <v>212</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,15 +3905,15 @@
         <v>213</v>
       </c>
       <c r="B253" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B254" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3921,7 @@
         <v>214</v>
       </c>
       <c r="B255" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3929,7 @@
         <v>215</v>
       </c>
       <c r="B256" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3937,7 @@
         <v>216</v>
       </c>
       <c r="B257" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
